--- a/Excel/GameConfig2.xlsx
+++ b/Excel/GameConfig2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13380" activeTab="1"/>
+    <workbookView windowWidth="20752" windowHeight="10455" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#Resource#资源配置" sheetId="1" r:id="rId1"/>
@@ -749,7 +749,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,9 +763,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1307,17 +1304,17 @@
       <selection activeCell="A1" sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="7.88888888888889" customWidth="1"/>
-    <col min="2" max="2" width="9.66666666666667" customWidth="1"/>
-    <col min="3" max="3" width="8.22222222222222" customWidth="1"/>
-    <col min="4" max="4" width="13.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="14.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="18.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="7.88495575221239" customWidth="1"/>
+    <col min="2" max="2" width="9.66371681415929" customWidth="1"/>
+    <col min="3" max="3" width="8.2212389380531" customWidth="1"/>
+    <col min="4" max="4" width="13.6637168141593" customWidth="1"/>
+    <col min="5" max="5" width="14.5575221238938" customWidth="1"/>
+    <col min="6" max="6" width="18.5575221238938" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.2" spans="1:6">
+    <row r="1" ht="15.75" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1337,7 +1334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="16.2" spans="1:6">
+    <row r="2" ht="15.75" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1357,7 +1354,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.2" spans="1:6">
+    <row r="3" ht="15.75" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1377,11 +1374,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="1:6">
+    <row r="4" ht="15" spans="1:6">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2">
@@ -1390,18 +1387,18 @@
       <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:6">
+    <row r="5" ht="15" spans="1:6">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="2">
@@ -1410,7 +1407,7 @@
       <c r="D5" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="2">
@@ -1432,13 +1429,13 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="6" width="17" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88888888888889" style="3"/>
+    <col min="7" max="16384" width="8.88495575221239" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.2" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1458,7 +1455,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="16.2" spans="1:6">
+    <row r="2" s="1" customFormat="1" ht="15.75" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1478,7 +1475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="16.2" spans="1:6">
+    <row r="3" s="1" customFormat="1" ht="15.75" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1502,7 +1499,7 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="2">
@@ -1511,7 +1508,7 @@
       <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2">
@@ -1522,7 +1519,7 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="2">
@@ -1531,7 +1528,7 @@
       <c r="D5" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="2">
         <v>8</v>
       </c>
       <c r="F5" s="2">
